--- a/docs/semiconductors/section3/topic6/assets/ae-Single-Pole-Low-and-High-Pass-Filters.xlsx
+++ b/docs/semiconductors/section3/topic6/assets/ae-Single-Pole-Low-and-High-Pass-Filters.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Computer-Engineering\CMPE1400-Semiconductors\Semiconductors-Private\n-Operational-Amplifiers\m-Frequency-Response-and-Filters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48998361-E725-468E-A08B-6DAC66B2229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246E10F-0015-4F54-8B05-1BC6CFFD7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="946" activeTab="5" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
   </bookViews>
   <sheets>
     <sheet name="Les-Intro-P2-Low-Pass" sheetId="3" r:id="rId1"/>
-    <sheet name="Les-Freq-Issue-P2-Low-Pass-WE" sheetId="8" r:id="rId2"/>
-    <sheet name="Les-Freq-Issue-P2-Low-Pass-Q" sheetId="11" r:id="rId3"/>
-    <sheet name="Les-Freq-Issue-P2-High-Pass-WE" sheetId="9" r:id="rId4"/>
-    <sheet name="Les-Freq-Issue-P2-High-Pass-Q" sheetId="12" r:id="rId5"/>
+    <sheet name="Les-Single-Pole-Low-Pass-Ques" sheetId="11" r:id="rId2"/>
+    <sheet name="Les-Single-Pole-High-Pass-Ques" sheetId="12" r:id="rId3"/>
+    <sheet name="Les-Single-Pole-Low-Pass-WE" sheetId="8" r:id="rId4"/>
+    <sheet name="Les-Single-Pole-High-Pass-WE" sheetId="9" r:id="rId5"/>
     <sheet name="Project6-High-Pass" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -718,11 +718,11 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="str">
-        <f>_xlfn.CONCAT(A3,O1,P1,J1,"2",K1)</f>
+        <f>_xlfn.CONCAT(A3,"/sqrt(2)")</f>
         <v>Vout_pass/sqrt(2)</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>_xlfn.CONCAT(D3,O1,P1,J1,"2",K1)</f>
+      <c r="C4" s="5" t="str">
+        <f>_xlfn.CONCAT(D3,"/sqrt(2)")</f>
         <v>5/sqrt(2)</v>
       </c>
       <c r="D4" s="6" t="str">
@@ -744,8 +744,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>_xlfn.CONCAT("10",N1,J1,D2,K1)</f>
-        <v>10*(3E+3)</v>
+        <f>_xlfn.CONCAT("10*",D2)</f>
+        <v>10*3E+3</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>TEXT(10*D2,"##0E+0")</f>
@@ -766,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>_xlfn.CONCAT(D3,O1,"10")</f>
+        <f>_xlfn.CONCAT(D3,"/10")</f>
         <v>5/10</v>
       </c>
       <c r="D7" s="4">
@@ -800,11 +800,11 @@
         <v>27</v>
       </c>
       <c r="B10" s="5" t="str">
-        <f>_xlfn.CONCAT("1",O1,J1,"2",N1,"pi",N1,A9,N1,A2,K1)</f>
+        <f>_xlfn.CONCAT("1/(2*pi*",A9,"*",A2,")")</f>
         <v>1/(2*pi*R*fc)</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f>_xlfn.CONCAT("1",O1,J1,"2",N1,"pi",N1,D9,N1,D2,K1)</f>
+      <c r="C10" s="5" t="str">
+        <f>_xlfn.CONCAT("1/(2*pi*",D9,"*",D2,")")</f>
         <v>1/(2*pi*10E+3*3E+3)</v>
       </c>
       <c r="D10" s="8">
@@ -825,268 +825,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EC7473-76FB-48A3-B62D-97B1E3CC9587}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>TEXT(2200,"##0.00E+0")</f>
-        <v>2.20E+3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>TEXT(1000,"##0.00E+0")</f>
-        <v>1.00E+3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>_xlfn.CONCAT(A2,"/",A3," inverted")</f>
-        <v>Rf/Ri inverted</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D2,")/(",D3,")")</f>
-        <v>(2.20E+3)/(1.00E+3)</v>
-      </c>
-      <c r="D4" s="9">
-        <f>D2/D3</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>TEXT(2200,"##0.00E+0")</f>
-        <v>2.20E+3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>TEXT(0.00000001,"##0.00E+0")</f>
-        <v>10.00E-9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f>_xlfn.CONCAT("1/(2*pi*",A5,"*",A6,")")</f>
-        <v>1/(2*pi*R*C)</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>_xlfn.CONCAT("1/(2*pi*(",D5,")*(",D6,"))")</f>
-        <v>1/(2*pi*(2.20E+3)*(10.00E-9))</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>TEXT(1/(2*PI()*D5*D6),"##0.00E+0")</f>
-        <v>7.23E+3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>TEXT(0.25,"##0.00E+0")</f>
-        <v>250.00E-3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>_xlfn.CONCAT(A8,"*",A4)</f>
-        <v>Vin_pass*Av</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D8,")*(",D4,")")</f>
-        <v>(250.00E-3)*(2.2)</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f>TEXT(D8*D4,"##0.00E+0")</f>
-        <v>550.00E-3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>_xlfn.CONCAT(A9,"/sqrt(2)")</f>
-        <v>Vout_pass/sqrt(2)</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D9,")/sqrt(2)")</f>
-        <v>(550.00E-3)/sqrt(2)</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f>TEXT(D9/SQRT(2),"##0.00E+0")</f>
-        <v>388.91E-3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D7,")*10")</f>
-        <v>(7.23E+3)*10</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f>TEXT(D7*10,"##0.00E+0")</f>
-        <v>72.30E+3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D9,")/10")</f>
-        <v>(550.00E-3)/10</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f>TEXT(D9/10,"##0.00E+0")</f>
-        <v>55.00E-3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D7,")*2")</f>
-        <v>(7.23E+3)*2</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f>TEXT(D7*2,"##0.00E+0")</f>
-        <v>14.46E+3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D9,")/2")</f>
-        <v>(550.00E-3)/2</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f>TEXT(D9/2,"##0.00E+0")</f>
-        <v>275.00E-3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0588B4-1AC1-410C-916A-3C340A4D08CE}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -1361,7 +1099,544 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B23BE9-376A-4DB7-A7D7-DFEFA81FEF70}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>TEXT(10000,"##0.00E+0")</f>
+        <v>10.00E+3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>TEXT(1000,"##0.00E+0")</f>
+        <v>1.00E+3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>_xlfn.CONCAT(A2,"/",A3," inverted")</f>
+        <v>Rf/Ri inverted</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D2,")/(",D3,")")</f>
+        <v>(10.00E+3)/(1.00E+3)</v>
+      </c>
+      <c r="D4" s="10">
+        <f>D2/D3</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>TEXT(1000,"##0.00E+0")</f>
+        <v>1.00E+3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>TEXT(0.000000015,"##0.00E+0")</f>
+        <v>15.00E-9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>_xlfn.CONCAT("1/(2*pi*",A5,"*",A6,")")</f>
+        <v>1/(2*pi*R*C)</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xlfn.CONCAT("1/(2*pi*(",D5,")*(",D6,"))")</f>
+        <v>1/(2*pi*(1.00E+3)*(15.00E-9))</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>TEXT(1/(2*PI()*D5*D6),"##0.00E+0")</f>
+        <v>10.61E+3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>TEXT(0.25,"##0.00E+0")</f>
+        <v>250.00E-3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>_xlfn.CONCAT(A8,"*",A4)</f>
+        <v>Vin_pass*Av</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D8,")*(",D4,")")</f>
+        <v>(250.00E-3)*(10)</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>TEXT(D8*D4,"##0.00E+0")</f>
+        <v>2.50E+0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>_xlfn.CONCAT(A9,"/sqrt(2)")</f>
+        <v>Vout_pass/sqrt(2)</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/sqrt(2)")</f>
+        <v>(2.50E+0)/sqrt(2)</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>TEXT(D9/SQRT(2),"##0.00E+0")</f>
+        <v>1.77E+0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4">
+        <f>D11*2</f>
+        <v>3.54</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D7,")/10")</f>
+        <v>(10.61E+3)/10</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>TEXT(D7/10,"##0.00E+0")</f>
+        <v>1.06E+3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/10")</f>
+        <v>(2.50E+0)/10</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>TEXT(D9/10,"##0.00E+0")</f>
+        <v>250.00E-3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D7,")/2")</f>
+        <v>(10.61E+3)/2</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>TEXT(D7/2,"##0.00E+0")</f>
+        <v>5.31E+3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/2")</f>
+        <v>(2.50E+0)/2</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>TEXT(D9/2,"##0.00E+0")</f>
+        <v>1.25E+0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EC7473-76FB-48A3-B62D-97B1E3CC9587}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>TEXT(2200,"##0.00E+0")</f>
+        <v>2.20E+3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>TEXT(1000,"##0.00E+0")</f>
+        <v>1.00E+3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>_xlfn.CONCAT(A2,"/",A3," inverted")</f>
+        <v>Rf/Ri inverted</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D2,")/(",D3,")")</f>
+        <v>(2.20E+3)/(1.00E+3)</v>
+      </c>
+      <c r="D4" s="9">
+        <f>D2/D3</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>TEXT(2200,"##0.00E+0")</f>
+        <v>2.20E+3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>TEXT(0.00000001,"##0.00E+0")</f>
+        <v>10.00E-9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>_xlfn.CONCAT("1/(2*pi*",A5,"*",A6,")")</f>
+        <v>1/(2*pi*R*C)</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xlfn.CONCAT("1/(2*pi*(",D5,")*(",D6,"))")</f>
+        <v>1/(2*pi*(2.20E+3)*(10.00E-9))</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>TEXT(1/(2*PI()*D5*D6),"##0.00E+0")</f>
+        <v>7.23E+3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>TEXT(0.25,"##0.00E+0")</f>
+        <v>250.00E-3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>_xlfn.CONCAT(A8,"*",A4)</f>
+        <v>Vin_pass*Av</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D8,")*(",D4,")")</f>
+        <v>(250.00E-3)*(2.2)</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>TEXT(D8*D4,"##0.00E+0")</f>
+        <v>550.00E-3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>_xlfn.CONCAT(A9,"/sqrt(2)")</f>
+        <v>Vout_pass/sqrt(2)</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/sqrt(2)")</f>
+        <v>(550.00E-3)/sqrt(2)</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>TEXT(D9/SQRT(2),"##0.00E+0")</f>
+        <v>388.91E-3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D7,")*10")</f>
+        <v>(7.23E+3)*10</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>TEXT(D7*10,"##0.00E+0")</f>
+        <v>72.30E+3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/10")</f>
+        <v>(550.00E-3)/10</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>TEXT(D9/10,"##0.00E+0")</f>
+        <v>55.00E-3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D7,")*2")</f>
+        <v>(7.23E+3)*2</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f>TEXT(D7*2,"##0.00E+0")</f>
+        <v>14.46E+3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>_xlfn.CONCAT("(",D9,")/2")</f>
+        <v>(550.00E-3)/2</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>TEXT(D9/2,"##0.00E+0")</f>
+        <v>275.00E-3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0448841-156F-4324-A457-ED7DE28A0B6B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -1612,281 +1887,6 @@
       <c r="D17" s="6" t="str">
         <f>TEXT(D9/2,"##0.00E+0")</f>
         <v>1.65E+0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B23BE9-376A-4DB7-A7D7-DFEFA81FEF70}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>TEXT(10000,"##0.00E+0")</f>
-        <v>10.00E+3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>TEXT(1000,"##0.00E+0")</f>
-        <v>1.00E+3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>_xlfn.CONCAT(A2,"/",A3," inverted")</f>
-        <v>Rf/Ri inverted</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D2,")/(",D3,")")</f>
-        <v>(10.00E+3)/(1.00E+3)</v>
-      </c>
-      <c r="D4" s="10">
-        <f>D2/D3</f>
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>TEXT(1000,"##0.00E+0")</f>
-        <v>1.00E+3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>TEXT(0.000000015,"##0.00E+0")</f>
-        <v>15.00E-9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f>_xlfn.CONCAT("1/(2*pi*",A5,"*",A6,")")</f>
-        <v>1/(2*pi*R*C)</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>_xlfn.CONCAT("1/(2*pi*(",D5,")*(",D6,"))")</f>
-        <v>1/(2*pi*(1.00E+3)*(15.00E-9))</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f>TEXT(1/(2*PI()*D5*D6),"##0.00E+0")</f>
-        <v>10.61E+3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <f>TEXT(0.25,"##0.00E+0")</f>
-        <v>250.00E-3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6">
-        <f>D8*2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>_xlfn.CONCAT(A8,"*",A4)</f>
-        <v>Vin_pass*Av</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D8,")*(",D4,")")</f>
-        <v>(250.00E-3)*(10)</v>
-      </c>
-      <c r="D9" s="3" t="str">
-        <f>TEXT(D8*D4,"##0.00E+0")</f>
-        <v>2.50E+0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>_xlfn.CONCAT(A9,"/sqrt(2)")</f>
-        <v>Vout_pass/sqrt(2)</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D9,")/sqrt(2)")</f>
-        <v>(2.50E+0)/sqrt(2)</v>
-      </c>
-      <c r="D11" s="11" t="str">
-        <f>TEXT(D9/SQRT(2),"##0.00E+0")</f>
-        <v>1.77E+0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4">
-        <f>D11*2</f>
-        <v>3.54</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D7,")/10")</f>
-        <v>(10.61E+3)/10</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f>TEXT(D7/10,"##0.00E+0")</f>
-        <v>1.06E+3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D9,")/10")</f>
-        <v>(2.50E+0)/10</v>
-      </c>
-      <c r="D14" s="11" t="str">
-        <f>TEXT(D9/10,"##0.00E+0")</f>
-        <v>250.00E-3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D7,")/2")</f>
-        <v>(10.61E+3)/2</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f>TEXT(D7/2,"##0.00E+0")</f>
-        <v>5.31E+3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>_xlfn.CONCAT("(",D9,")/2")</f>
-        <v>(2.50E+0)/2</v>
-      </c>
-      <c r="D17" s="11" t="str">
-        <f>TEXT(D9/2,"##0.00E+0")</f>
-        <v>1.25E+0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>

--- a/docs/semiconductors/section3/topic6/assets/ae-Single-Pole-Low-and-High-Pass-Filters.xlsx
+++ b/docs/semiconductors/section3/topic6/assets/ae-Single-Pole-Low-and-High-Pass-Filters.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-Computer-Engineering\CMPE1400-Semiconductors\Semiconductors-Private\n-Operational-Amplifiers\m-Frequency-Response-and-Filters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246E10F-0015-4F54-8B05-1BC6CFFD7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025C4B4-BC99-4A93-8733-45DCE71E6F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="946" activeTab="5" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="946" activeTab="4" xr2:uid="{A836C8EE-5F87-499F-8280-F517B9E3A373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Les-Intro-P2-Low-Pass" sheetId="3" r:id="rId1"/>
+    <sheet name="Les-Intro-P2-Low-Pass-NO-PIC" sheetId="3" r:id="rId1"/>
     <sheet name="Les-Single-Pole-Low-Pass-Ques" sheetId="11" r:id="rId2"/>
     <sheet name="Les-Single-Pole-High-Pass-Ques" sheetId="12" r:id="rId3"/>
     <sheet name="Les-Single-Pole-Low-Pass-WE" sheetId="8" r:id="rId4"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +284,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +302,277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0398191C-D2C0-EE09-032F-7C4294CBDDE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8301990" y="64771"/>
+          <a:ext cx="3227070" cy="3882806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BC83E7-3666-4959-B443-586EDA3DACED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9246870" y="322694"/>
+          <a:ext cx="3227070" cy="2536377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022192DC-4524-43D0-B3A6-3136A82E0BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9166860" y="157055"/>
+          <a:ext cx="3227070" cy="2496587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5E0258-9EE5-42CB-A508-3F84360C4E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="503182"/>
+          <a:ext cx="3227070" cy="1949113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8AA576-EB5F-46FE-B07E-3CAC6F37B511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9193530" y="462790"/>
+          <a:ext cx="3227070" cy="1412153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,7 +895,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -632,7 +906,7 @@
     <col min="4" max="4" width="8.1484375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.84765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.94921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -735,6 +1009,7 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
@@ -817,6 +1092,7 @@
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,13 +1105,13 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.94921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
@@ -1096,6 +1372,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1104,7 +1381,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1371,6 +1648,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1379,7 +1657,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1633,6 +1911,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1640,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0448841-156F-4324-A457-ED7DE28A0B6B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1895,6 +2174,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1902,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD40C2A-4A0D-4015-92F5-D683C9E8DC4C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2036,11 +2316,11 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <f>D8*2</f>
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2083,11 +2363,11 @@
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <f>D11*2</f>
         <v>3.12</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2170,5 +2450,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>